--- a/iselUssSyncV2/OutputWSL/20220426_1139_D50L474W90Q25.0U0.36H87G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220426_1139_D50L474W90Q25.0U0.36H87G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>88.048095238095243</v>
+        <v>88.049026005116232</v>
       </c>
       <c r="F2" s="0">
-        <v>87.840000000000046</v>
+        <v>87.840930767020936</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>88.372648221343894</v>
+        <v>88.37492342961734</v>
       </c>
       <c r="F3" s="0">
-        <v>89.45205533596841</v>
+        <v>89.454330544241827</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>87.308814229249094</v>
+        <v>87.311565162888812</v>
       </c>
       <c r="F4" s="0">
-        <v>91.330276679841901</v>
+        <v>91.333027613481704</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>86.503690476190542</v>
+        <v>86.506496566394432</v>
       </c>
       <c r="F5" s="0">
-        <v>91.786031746031753</v>
+        <v>91.788837836235686</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>85.158095238095228</v>
+        <v>85.160949590292915</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,7 +220,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>82.455896414342632</v>
+        <v>82.458792133963414</v>
       </c>
       <c r="F7" s="0"/>
     </row>
@@ -238,10 +238,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>77.846785714285744</v>
+        <v>77.849715906759144</v>
       </c>
       <c r="F8" s="0">
-        <v>87.352857142857189</v>
+        <v>87.355787335330618</v>
       </c>
     </row>
     <row r="9">
@@ -258,7 +258,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>75.272828685259</v>
+        <v>75.275770736393696</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -276,7 +276,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>72.472380952380973</v>
+        <v>72.475333759045682</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -294,7 +294,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>69.194523809523801</v>
+        <v>69.197486268587298</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -312,7 +312,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>67.304342629482065</v>
+        <v>67.307309501070705</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -330,7 +330,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>65.598492063492088</v>
+        <v>65.601463071823019</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -348,10 +348,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>63.986733067729105</v>
+        <v>63.989707937019546</v>
       </c>
       <c r="F14" s="0">
-        <v>20.69804780876494</v>
+        <v>20.70102267805537</v>
       </c>
     </row>
     <row r="15">
@@ -368,10 +368,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>62.062589641434251</v>
+        <v>62.065568095901369</v>
       </c>
       <c r="F15" s="0">
-        <v>21.820438247011953</v>
+        <v>21.823416701479065</v>
       </c>
     </row>
     <row r="16">
@@ -388,10 +388,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>58.773055555555558</v>
+        <v>58.77604035302754</v>
       </c>
       <c r="F16" s="0">
-        <v>22.556507936507934</v>
+        <v>22.55949273397993</v>
       </c>
     </row>
     <row r="17">
@@ -408,10 +408,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>55.316533864541832</v>
+        <v>55.319523901887429</v>
       </c>
       <c r="F17" s="0">
-        <v>22.237888446215138</v>
+        <v>22.240878483560724</v>
       </c>
     </row>
     <row r="18">
@@ -428,10 +428,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>52.307936507936525</v>
+        <v>52.310930682024406</v>
       </c>
       <c r="F18" s="0">
-        <v>23.298571428571428</v>
+        <v>23.301565602659338</v>
       </c>
     </row>
     <row r="19">
@@ -448,10 +448,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>46.909841269841294</v>
+        <v>46.912840408019946</v>
       </c>
       <c r="F19" s="0">
-        <v>24.005555555555556</v>
+        <v>24.008554693734236</v>
       </c>
     </row>
     <row r="20">
@@ -468,10 +468,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>41.217649402390428</v>
+        <v>41.220648540569108</v>
       </c>
       <c r="F20" s="0">
-        <v>33.614143426294817</v>
+        <v>33.617142564473504</v>
       </c>
     </row>
     <row r="21">
@@ -488,10 +488,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>36.520158730158727</v>
+        <v>36.523150973766882</v>
       </c>
       <c r="F21" s="0">
-        <v>59.600674603174596</v>
+        <v>59.603666846782765</v>
       </c>
     </row>
     <row r="22">
@@ -508,10 +508,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>33.074563492063483</v>
+        <v>33.077541946530609</v>
       </c>
       <c r="F22" s="0">
-        <v>59.575238095238106</v>
+        <v>59.578216549705196</v>
       </c>
     </row>
     <row r="23">
@@ -528,10 +528,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>30.337768924302786</v>
+        <v>30.340726695058315</v>
       </c>
       <c r="F23" s="0">
-        <v>50.255896414342629</v>
+        <v>50.258854185098158</v>
       </c>
     </row>
     <row r="24">
@@ -548,10 +548,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>28.722589641434251</v>
+        <v>28.725485361055064</v>
       </c>
       <c r="F24" s="0">
-        <v>46.954262948207166</v>
+        <v>46.957158667827976</v>
       </c>
     </row>
     <row r="25">
@@ -568,10 +568,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>36.286733067729081</v>
+        <v>36.289539157933049</v>
       </c>
       <c r="F25" s="0">
-        <v>49.979123505976091</v>
+        <v>49.981929596180045</v>
       </c>
     </row>
     <row r="26">
@@ -588,10 +588,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>59.528127490039843</v>
+        <v>59.530816372544869</v>
       </c>
       <c r="F26" s="0">
-        <v>46.205378486055778</v>
+        <v>46.208067368560805</v>
       </c>
     </row>
     <row r="27">
@@ -608,10 +608,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>47.575019920318724</v>
+        <v>47.577564016842707</v>
       </c>
       <c r="F27" s="0">
-        <v>52.623067729083672</v>
+        <v>52.625611825607642</v>
       </c>
     </row>
     <row r="28">
@@ -628,10 +628,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>55.154365079365085</v>
+        <v>55.156736811625919</v>
       </c>
       <c r="F28" s="0">
-        <v>55.912976190476193</v>
+        <v>55.915347922737041</v>
       </c>
     </row>
     <row r="29">
@@ -648,10 +648,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>62.275753968253973</v>
+        <v>62.27792575796957</v>
       </c>
       <c r="F29" s="0">
-        <v>54.31547619047619</v>
+        <v>54.317647980191779</v>
       </c>
     </row>
     <row r="30">
@@ -668,10 +668,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>61.335335968379454</v>
+        <v>61.337025138158261</v>
       </c>
       <c r="F30" s="0">
-        <v>56.424901185770757</v>
+        <v>56.426590355549564</v>
       </c>
     </row>
   </sheetData>
